--- a/CW_table_KazancevG.xlsx
+++ b/CW_table_KazancevG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerzeg\Desktop\мага 2 семестр\САПР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerzeg\Desktop\мага 2 семестр\САПР\femm_scripting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B259868-8603-45FE-85E9-C01257E924F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085EC3E-8DDB-4F7D-B820-CC72C9EE5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="4110" windowWidth="25680" windowHeight="12480" activeTab="1" xr2:uid="{73D630FC-C3B9-4529-A3C0-90A24CC2CB6A}"/>
+    <workbookView xWindow="2625" yWindow="1575" windowWidth="25680" windowHeight="12480" xr2:uid="{73D630FC-C3B9-4529-A3C0-90A24CC2CB6A}"/>
   </bookViews>
   <sheets>
     <sheet name="test_table" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Density</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Angle</t>
   </si>
   <si>
-    <t>phase 1</t>
-  </si>
-  <si>
-    <t>phase 2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -87,10 +81,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -147,26 +152,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -201,72 +208,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Синхронизирующий момент </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20604914933837432"/>
-          <c:y val="3.4433280322750996E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -493,192 +435,195 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>test_table!$B$2:$B$63</c:f>
+              <c:f>test_table!$D$2:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>1.7666511630469998E-2</c:v>
+                  <c:v>-1.7666511630469998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.5186009495574599</c:v>
+                  <c:v>3.5186009495574599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.4337364065304499</c:v>
+                  <c:v>6.4337364065304499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.3188088903642203</c:v>
+                  <c:v>8.3188088903642203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.0761361502238</c:v>
+                  <c:v>10.0761361502238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.4975772112047</c:v>
+                  <c:v>11.4975772112047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.644147305769099</c:v>
+                  <c:v>12.644147305769099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.261240016458499</c:v>
+                  <c:v>13.261240016458499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14.721312487693201</c:v>
+                  <c:v>14.721312487693201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-15.3087427380277</c:v>
+                  <c:v>15.3087427380277</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-16.181550602514999</c:v>
+                  <c:v>16.181550602514999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-17.1543493312553</c:v>
+                  <c:v>17.1543493312553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-17.588970771699199</c:v>
+                  <c:v>17.588970771699199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.009711234844399</c:v>
+                  <c:v>17.009711234844399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-15.7674031184015</c:v>
+                  <c:v>15.7674031184015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-14.4460881724802</c:v>
+                  <c:v>14.4460881724802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-13.8632272200371</c:v>
+                  <c:v>13.8632272200371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.4517279141052</c:v>
+                  <c:v>13.4517279141052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-13.079885235908501</c:v>
+                  <c:v>13.079885235908501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-12.993719431269501</c:v>
+                  <c:v>12.993719431269501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-12.9100818217347</c:v>
+                  <c:v>12.9100818217347</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12.8244084559137</c:v>
+                  <c:v>12.8244084559137</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-12.704375794440899</c:v>
+                  <c:v>12.704375794440899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-12.402625628979299</c:v>
+                  <c:v>12.402625628979299</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-12.073555047728499</c:v>
+                  <c:v>12.073555047728499</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-11.4682758492993</c:v>
+                  <c:v>11.4682758492993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10.644372330468</c:v>
+                  <c:v>10.644372330468</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.19445321541005</c:v>
+                  <c:v>9.19445321541005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6.7749907689101398</c:v>
+                  <c:v>6.7749907689101398</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.3551775706117102</c:v>
+                  <c:v>3.3551775706117102</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.11421667259091E-2</c:v>
+                  <c:v>1.11421667259091E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-13.4517279141052</c:v>
+                  <c:v>13.4517279141052</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-13.079885235908501</c:v>
+                  <c:v>13.079885235908501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-12.993719431269501</c:v>
+                  <c:v>12.993719431269501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-12.9100818217347</c:v>
+                  <c:v>12.9100818217347</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-12.8244084559137</c:v>
+                  <c:v>12.8244084559137</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-12.704375794440899</c:v>
+                  <c:v>12.704375794440899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-12.402625628979299</c:v>
+                  <c:v>12.402625628979299</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12.073555047728499</c:v>
+                  <c:v>12.073555047728499</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-11.4682758492993</c:v>
+                  <c:v>11.4682758492993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-10.644372330468</c:v>
+                  <c:v>10.644372330468</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-9.19445321541005</c:v>
+                  <c:v>9.19445321541005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-6.7749907689101398</c:v>
+                  <c:v>6.7749907689101398</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.3551775706117102</c:v>
+                  <c:v>3.3551775706117102</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.11421667259091E-2</c:v>
+                  <c:v>1.11421667259091E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7666511630469998E-2</c:v>
+                  <c:v>-1.7666511630469998E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.5186009495574599</c:v>
+                  <c:v>3.5186009495574599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-6.4337364065304499</c:v>
+                  <c:v>6.4337364065304499</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-8.3188088903642203</c:v>
+                  <c:v>8.3188088903642203</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-10.0761361502238</c:v>
+                  <c:v>10.0761361502238</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-11.4975772112047</c:v>
+                  <c:v>11.4975772112047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-12.644147305769099</c:v>
+                  <c:v>12.644147305769099</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-13.261240016458499</c:v>
+                  <c:v>13.261240016458499</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-14.721312487693201</c:v>
+                  <c:v>14.721312487693201</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-15.3087427380277</c:v>
+                  <c:v>15.3087427380277</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-16.181550602514999</c:v>
+                  <c:v>16.181550602514999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-17.1543493312553</c:v>
+                  <c:v>17.1543493312553</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-17.588970771699199</c:v>
+                  <c:v>17.588970771699199</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-17.009711234844399</c:v>
+                  <c:v>17.009711234844399</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.7674031184015</c:v>
+                  <c:v>15.7674031184015</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-14.4460881724802</c:v>
+                  <c:v>14.4460881724802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,6 +650,7 @@
         <c:axId val="104414240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -722,6 +668,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Угол</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t> поворота ротора, эл. град.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36768157205746155"/>
+              <c:y val="0.9188636323997319"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -744,7 +758,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -762,44 +776,16 @@
         <c:crossAx val="104410080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="6"/>
+        <c:majorUnit val="30"/>
         <c:dispUnits>
-          <c:custUnit val="6"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
+          <c:custUnit val="1"/>
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="104410080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -817,6 +803,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Момент, Н*м</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -839,7 +880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -917,64 +958,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Магнитодвижущая сила </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1203,7 +1187,7 @@
             <c:numRef>
               <c:f>test_table!$C$2:$C$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0.78186105380373505</c:v>
@@ -1340,6 +1324,94 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Угол поворота ротора, эл. град.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1362,7 +1434,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1402,7 +1474,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Магнитодвижущая сила, А</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1424,7 +1551,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1502,37 +1629,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1669,102 +1766,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>test_table!$B$2:$B$32</c:f>
+              <c:f>test_table!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.7666511630469998E-2</c:v>
+                  <c:v>-1.7666511630469998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.5186009495574599</c:v>
+                  <c:v>3.5186009495574599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.4337364065304499</c:v>
+                  <c:v>6.4337364065304499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.3188088903642203</c:v>
+                  <c:v>8.3188088903642203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.0761361502238</c:v>
+                  <c:v>10.0761361502238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.4975772112047</c:v>
+                  <c:v>11.4975772112047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.644147305769099</c:v>
+                  <c:v>12.644147305769099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.261240016458499</c:v>
+                  <c:v>13.261240016458499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14.721312487693201</c:v>
+                  <c:v>14.721312487693201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-15.3087427380277</c:v>
+                  <c:v>15.3087427380277</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-16.181550602514999</c:v>
+                  <c:v>16.181550602514999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-17.1543493312553</c:v>
+                  <c:v>17.1543493312553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-17.588970771699199</c:v>
+                  <c:v>17.588970771699199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.009711234844399</c:v>
+                  <c:v>17.009711234844399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-15.7674031184015</c:v>
+                  <c:v>15.7674031184015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-14.4460881724802</c:v>
+                  <c:v>14.4460881724802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-13.8632272200371</c:v>
+                  <c:v>13.8632272200371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.4517279141052</c:v>
+                  <c:v>13.4517279141052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-13.079885235908501</c:v>
+                  <c:v>13.079885235908501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-12.993719431269501</c:v>
+                  <c:v>12.993719431269501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-12.9100818217347</c:v>
+                  <c:v>12.9100818217347</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12.8244084559137</c:v>
+                  <c:v>12.8244084559137</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-12.704375794440899</c:v>
+                  <c:v>12.704375794440899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-12.402625628979299</c:v>
+                  <c:v>12.402625628979299</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-12.073555047728499</c:v>
+                  <c:v>12.073555047728499</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-11.4682758492993</c:v>
+                  <c:v>11.4682758492993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10.644372330468</c:v>
+                  <c:v>10.644372330468</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.19445321541005</c:v>
+                  <c:v>9.19445321541005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6.7749907689101398</c:v>
+                  <c:v>6.7749907689101398</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.3551775706117102</c:v>
+                  <c:v>3.3551775706117102</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.11421667259091E-2</c:v>
+                  <c:v>1.11421667259091E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,6 +1905,94 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Угол поворота ротора, эл. град.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1830,7 +2015,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1853,6 +2038,7 @@
         <c:axId val="102927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1870,6 +2056,94 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Момент, Н*м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1892,7 +2166,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1970,64 +2244,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Синхронизирующий момент на середине межкоммутационного интервала</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2133,7 +2350,7 @@
             <c:numRef>
               <c:f>interswitch_table!$B$3:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.26404840223596798</c:v>
@@ -2237,6 +2454,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Плотность тока, А</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>^2</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2259,7 +2544,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2299,7 +2584,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Момент, Н*м</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2321,7 +2661,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2399,64 +2739,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Магнитодвижущая сила </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2562,7 +2845,7 @@
             <c:numRef>
               <c:f>interswitch_table!$C$3:$C$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3.4724618013407399E-3</c:v>
@@ -2666,6 +2949,112 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Плотность тока, А</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>^2</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2688,7 +3077,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2728,7 +3117,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Магнитодвижущая сила </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" i="1">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>F</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" i="1">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2750,7 +3221,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2828,65 +3299,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Величина индукции в коронке зубца </a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2992,7 +3405,7 @@
             <c:numRef>
               <c:f>interswitch_table!$D$3:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.22022581962318699</c:v>
@@ -3158,7 +3571,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6584,16 +6997,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93698</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185735</xdr:rowOff>
+      <xdr:rowOff>160887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219904</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>3726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6620,16 +7033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112764</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6658,16 +7071,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99562</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6699,16 +7112,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>465259</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>181707</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>382433</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>172182</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>67407</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6735,16 +7148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520212</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611321</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>227135</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>2931</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6814,13 +7227,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{38FB289E-A723-4E18-935C-2B2CECDAE815}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6" unboundColumnsRight="2">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Angle" tableColumnId="1"/>
       <queryTableField id="2" name="Torque" tableColumnId="2"/>
       <queryTableField id="3" name="Force" tableColumnId="3"/>
-      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
-      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -6840,14 +7251,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C84ABA5B-0E48-45F7-9939-10173A11C27C}" name="test_table" displayName="test_table" ref="A1:E63" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E63" xr:uid="{C84ABA5B-0E48-45F7-9939-10173A11C27C}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C84ABA5B-0E48-45F7-9939-10173A11C27C}" name="test_table" displayName="test_table" ref="A1:C63" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C63" xr:uid="{C84ABA5B-0E48-45F7-9939-10173A11C27C}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{90B822BB-A1B0-4026-B05A-7EA633075F5F}" uniqueName="1" name="Angle" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{58E1B4E8-BBE9-4CFC-A422-AD9B9406F9A7}" uniqueName="2" name="Torque" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{B4DE7FD1-5AC4-4B63-A056-CA93B574CF04}" uniqueName="3" name="Force" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FEE65BF2-0E93-40DE-AF39-82216849F09C}" uniqueName="4" name="phase 1" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7577C343-42E0-4CB4-99D5-245D17B9C89D}" uniqueName="5" name="phase 2" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7163,10 +7572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DB12A-30B7-4A6E-84C0-4549C2B9C0D0}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7176,7 +7585,7 @@
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7186,359 +7595,699 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1.7666511630469998E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>0.78186105380373505</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>-1.7666511630469998E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>-1.7666511630469998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
+        <f>-3.51860094955746</f>
         <v>-3.5186009495574599</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>0.114786598232612</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>3.5186009495574599</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>3.5186009495574599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>-6.4337364065304499</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>0.71659926715648803</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>6.4337364065304499</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>6.4337364065304499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>-8.3188088903642203</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>0.52664522605657205</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>8.3188088903642203</v>
+      </c>
+      <c r="F5" s="2">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>8.3188088903642203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>-10.0761361502238</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>2.28572492171185</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>10.0761361502238</v>
+      </c>
+      <c r="F6" s="3">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>10.0761361502238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>-11.4975772112047</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>4.2743309237028999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>11.4975772112047</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>11.4975772112047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>-12.644147305769099</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>8.2249829486243407</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.644147305769099</v>
+      </c>
+      <c r="F8" s="3">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.644147305769099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>-13.261240016458499</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>12.8270408203188</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.261240016458499</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.261240016458499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>48</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>-14.721312487693201</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>20.673574951913501</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>14.721312487693201</v>
+      </c>
+      <c r="F10" s="3">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>14.721312487693201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>54</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>-15.3087427380277</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>30.795332288217502</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>15.3087427380277</v>
+      </c>
+      <c r="F11" s="2">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>15.3087427380277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>-16.181550602514999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>45.1644686816012</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>16.181550602514999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>16.181550602514999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>66</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>-17.1543493312553</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>49.4580314706377</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.1543493312553</v>
+      </c>
+      <c r="F13" s="2">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.1543493312553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>72</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>-17.588970771699199</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>42.598840976841203</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.588970771699199</v>
+      </c>
+      <c r="F14" s="3">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.588970771699199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>78</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>-17.009711234844399</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>32.235922941880602</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.009711234844399</v>
+      </c>
+      <c r="F15" s="2">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.009711234844399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>84</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>-15.7674031184015</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>32.8489649643967</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>15.7674031184015</v>
+      </c>
+      <c r="F16" s="3">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>15.7674031184015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>90</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>-14.4460881724802</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>40.183821652243402</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>14.4460881724802</v>
+      </c>
+      <c r="F17" s="2">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>14.4460881724802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>96</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>-13.8632272200371</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>47.075946370197997</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.8632272200371</v>
+      </c>
+      <c r="F18" s="3">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.8632272200371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>102</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>-13.4517279141052</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>47.671296106717797</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.4517279141052</v>
+      </c>
+      <c r="F19" s="2">
+        <v>102</v>
+      </c>
+      <c r="G19">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.4517279141052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>108</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>-13.079885235908501</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>39.874858997753101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.079885235908501</v>
+      </c>
+      <c r="F20" s="3">
+        <v>108</v>
+      </c>
+      <c r="G20">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.079885235908501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>114</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>-12.993719431269501</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>29.224545578907001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.993719431269501</v>
+      </c>
+      <c r="F21" s="2">
+        <v>114</v>
+      </c>
+      <c r="G21">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.993719431269501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>120</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>-12.9100818217347</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>18.286023949806001</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.9100818217347</v>
+      </c>
+      <c r="F22" s="3">
+        <v>120</v>
+      </c>
+      <c r="G22">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.9100818217347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>126</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>-12.8244084559137</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>10.883669439921899</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.8244084559137</v>
+      </c>
+      <c r="F23" s="2">
+        <v>126</v>
+      </c>
+      <c r="G23">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.8244084559137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>132</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>-12.704375794440899</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>6.5394365878888197</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.704375794440899</v>
+      </c>
+      <c r="F24" s="3">
+        <v>132</v>
+      </c>
+      <c r="G24">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.704375794440899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>138</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>-12.402625628979299</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>4.7952679565158496</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.402625628979299</v>
+      </c>
+      <c r="F25" s="2">
+        <v>138</v>
+      </c>
+      <c r="G25">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.402625628979299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>144</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>-12.073555047728499</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>4.0843630878953396</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.073555047728499</v>
+      </c>
+      <c r="F26" s="3">
+        <v>144</v>
+      </c>
+      <c r="G26">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.073555047728499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>150</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>-11.4682758492993</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6">
         <v>3.7174334392345001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>11.4682758492993</v>
+      </c>
+      <c r="F27" s="2">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>11.4682758492993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>156</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>-10.644372330468</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>2.4286820332720098</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>10.644372330468</v>
+      </c>
+      <c r="F28" s="3">
+        <v>156</v>
+      </c>
+      <c r="G28">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>10.644372330468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>162</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>-9.19445321541005</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>1.61983518219231</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>9.19445321541005</v>
+      </c>
+      <c r="F29" s="2">
+        <v>162</v>
+      </c>
+      <c r="G29">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>9.19445321541005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>168</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>-6.7749907689101398</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="6">
         <v>1.1715015792277399</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>6.7749907689101398</v>
+      </c>
+      <c r="F30" s="3">
+        <v>168</v>
+      </c>
+      <c r="G30">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>6.7749907689101398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>174</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>-3.3551775706117102</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>0.12730586947056299</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>3.3551775706117102</v>
+      </c>
+      <c r="F31" s="2">
+        <v>174</v>
+      </c>
+      <c r="G31">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>3.3551775706117102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>180</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>-1.11421667259091E-2</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>0.22978637938893001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>1.11421667259091E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>180</v>
+      </c>
+      <c r="G32">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>1.11421667259091E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -7546,8 +8295,12 @@
         <v>-13.4517279141052</v>
       </c>
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.4517279141052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -7555,8 +8308,12 @@
         <v>-13.079885235908501</v>
       </c>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.079885235908501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
@@ -7564,8 +8321,12 @@
         <v>-12.993719431269501</v>
       </c>
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.993719431269501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
@@ -7573,8 +8334,12 @@
         <v>-12.9100818217347</v>
       </c>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.9100818217347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -7582,8 +8347,12 @@
         <v>-12.8244084559137</v>
       </c>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.8244084559137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -7591,8 +8360,12 @@
         <v>-12.704375794440899</v>
       </c>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.704375794440899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
@@ -7600,8 +8373,12 @@
         <v>-12.402625628979299</v>
       </c>
       <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.402625628979299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>48</v>
       </c>
@@ -7609,8 +8386,12 @@
         <v>-12.073555047728499</v>
       </c>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.073555047728499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>54</v>
       </c>
@@ -7618,8 +8399,12 @@
         <v>-11.4682758492993</v>
       </c>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>11.4682758492993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>60</v>
       </c>
@@ -7627,8 +8412,12 @@
         <v>-10.644372330468</v>
       </c>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>10.644372330468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>66</v>
       </c>
@@ -7636,8 +8425,12 @@
         <v>-9.19445321541005</v>
       </c>
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>9.19445321541005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>72</v>
       </c>
@@ -7645,8 +8438,12 @@
         <v>-6.7749907689101398</v>
       </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>6.7749907689101398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>78</v>
       </c>
@@ -7654,8 +8451,12 @@
         <v>-3.3551775706117102</v>
       </c>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>3.3551775706117102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>84</v>
       </c>
@@ -7663,8 +8464,12 @@
         <v>-1.11421667259091E-2</v>
       </c>
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>1.11421667259091E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>90</v>
       </c>
@@ -7672,8 +8477,12 @@
         <v>1.7666511630469998E-2</v>
       </c>
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>-1.7666511630469998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>96</v>
       </c>
@@ -7681,8 +8490,12 @@
         <v>-3.5186009495574599</v>
       </c>
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>3.5186009495574599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>102</v>
       </c>
@@ -7690,8 +8503,12 @@
         <v>-6.4337364065304499</v>
       </c>
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>6.4337364065304499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>108</v>
       </c>
@@ -7699,8 +8516,12 @@
         <v>-8.3188088903642203</v>
       </c>
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>8.3188088903642203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>114</v>
       </c>
@@ -7708,8 +8529,12 @@
         <v>-10.0761361502238</v>
       </c>
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>10.0761361502238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>120</v>
       </c>
@@ -7717,8 +8542,12 @@
         <v>-11.4975772112047</v>
       </c>
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>11.4975772112047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>126</v>
       </c>
@@ -7726,8 +8555,12 @@
         <v>-12.644147305769099</v>
       </c>
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>12.644147305769099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>132</v>
       </c>
@@ -7735,8 +8568,12 @@
         <v>-13.261240016458499</v>
       </c>
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>13.261240016458499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>138</v>
       </c>
@@ -7744,8 +8581,12 @@
         <v>-14.721312487693201</v>
       </c>
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>14.721312487693201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>144</v>
       </c>
@@ -7753,8 +8594,12 @@
         <v>-15.3087427380277</v>
       </c>
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>15.3087427380277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>150</v>
       </c>
@@ -7762,8 +8607,12 @@
         <v>-16.181550602514999</v>
       </c>
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>16.181550602514999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>156</v>
       </c>
@@ -7771,8 +8620,12 @@
         <v>-17.1543493312553</v>
       </c>
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.1543493312553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>162</v>
       </c>
@@ -7780,8 +8633,12 @@
         <v>-17.588970771699199</v>
       </c>
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.588970771699199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>168</v>
       </c>
@@ -7789,8 +8646,12 @@
         <v>-17.009711234844399</v>
       </c>
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>17.009711234844399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>174</v>
       </c>
@@ -7798,8 +8659,12 @@
         <v>-15.7674031184015</v>
       </c>
       <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>15.7674031184015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>180</v>
       </c>
@@ -7807,8 +8672,13 @@
         <v>-14.4460881724802</v>
       </c>
       <c r="C63" s="1"/>
+      <c r="D63">
+        <f>test_table[[#This Row],[Torque]]*(-1)</f>
+        <v>14.4460881724802</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7822,8 +8692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CEF31E-D754-4244-A1D2-C02868584DC4}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B31"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7933,7 +8803,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8090,8 +8960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8CAB8-798D-4152-9E16-8AEFD88AE98A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8120,13 +8990,13 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8134,13 +9004,13 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>0.26404840223596798</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>3.4724618013407399E-3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>0.22022581962318699</v>
       </c>
     </row>
@@ -8148,13 +9018,13 @@
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>1.04325331548573</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>0.16741321078283</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>0.485137148626057</v>
       </c>
     </row>
@@ -8162,13 +9032,13 @@
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>2.8624512085795999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>0.201975761763378</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>0.64350255127999401</v>
       </c>
     </row>
@@ -8176,13 +9046,13 @@
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>5.4795563071982398</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>0.28345739739856601</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>0.74689708679584899</v>
       </c>
     </row>
@@ -8190,13 +9060,13 @@
       <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>8.2445719623125395</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>0.47362768184304899</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>0.84425751044098596</v>
       </c>
     </row>
@@ -8204,13 +9074,13 @@
       <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>10.9889023753625</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>0.56744404164278395</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>0.93246127660557498</v>
       </c>
     </row>
@@ -8218,13 +9088,13 @@
       <c r="A9">
         <v>35</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>13.5486545979425</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>0.55726483130662197</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>1.0073955494247799</v>
       </c>
     </row>
@@ -8232,13 +9102,13 @@
       <c r="A10">
         <v>40</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>15.8430526208773</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>0.55160324450077103</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>1.06460969163061</v>
       </c>
     </row>
@@ -8246,13 +9116,13 @@
       <c r="A11">
         <v>45</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>17.947584947439999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>0.57574149348617398</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>1.1098543996500001</v>
       </c>
     </row>
@@ -8260,13 +9130,13 @@
       <c r="A12">
         <v>50</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>19.931946610848801</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>0.59024077310420697</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>1.14713109261171</v>
       </c>
     </row>
@@ -8274,13 +9144,13 @@
       <c r="A13">
         <v>60</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>23.625535034794002</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>0.59170458711708496</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>1.2073726620129701</v>
       </c>
     </row>
@@ -8288,13 +9158,13 @@
       <c r="A14">
         <v>70</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>27.0902221329257</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>0.59376719083410401</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>1.2572235735214701</v>
       </c>
     </row>
@@ -8302,13 +9172,13 @@
       <c r="A15">
         <v>80</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>30.257064748122001</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>0.575230503538396</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>1.3012983735836801</v>
       </c>
     </row>
@@ -8316,13 +9186,13 @@
       <c r="A16">
         <v>90</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>33.027069319252703</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>0.56787848258462803</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>1.34244514620778</v>
       </c>
     </row>
@@ -8330,13 +9200,13 @@
       <c r="A17">
         <v>100</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>35.165207462765899</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>0.56082421264855198</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>1.38246221866745</v>
       </c>
     </row>
@@ -8344,13 +9214,13 @@
       <c r="A18">
         <v>110</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>36.8982690841219</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>0.55008229972332801</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>1.42059211107488</v>
       </c>
     </row>
@@ -8358,13 +9228,13 @@
       <c r="A19">
         <v>120</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>38.424449784231101</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>0.55732825609883896</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>1.4560650747563</v>
       </c>
     </row>
@@ -8372,13 +9242,13 @@
       <c r="A20">
         <v>130</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>39.826611471807702</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>0.54675478439713698</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>1.4884630983223901</v>
       </c>
     </row>
@@ -8386,13 +9256,13 @@
       <c r="A21">
         <v>140</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>41.140073917679899</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>0.53349425809371198</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>1.5177780890689001</v>
       </c>
     </row>
@@ -8400,21 +9270,22 @@
       <c r="A22">
         <v>150</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>42.384498402714897</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>0.53306951959839299</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>1.5445131200479001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
